--- a/C042_リーグ表の作成.xlsx
+++ b/C042_リーグ表の作成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFFB62F-972D-4B1D-9040-BEB3E9115FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A436A2A0-BBC6-4E1C-944D-D6A9279C49B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C066" sheetId="1" r:id="rId1"/>
+    <sheet name="C042" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,28 +30,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>金魚の数M</t>
-  </si>
-  <si>
-    <t>goldfish_number</t>
-  </si>
-  <si>
-    <t>ポイの数 N</t>
-  </si>
-  <si>
-    <t>fish_net</t>
-  </si>
-  <si>
-    <t>金魚の重さ</t>
-  </si>
-  <si>
-    <t>goldfish_weight</t>
-  </si>
-  <si>
-    <t>ポイの耐久性 x</t>
-  </si>
-  <si>
-    <t>fish_net_durability</t>
+    <t>大会の参加者の総数 N</t>
+  </si>
+  <si>
+    <t>Total_participants</t>
+  </si>
+  <si>
+    <t>勝者の番号 f_i</t>
+  </si>
+  <si>
+    <t>Winner_number</t>
+  </si>
+  <si>
+    <t>敗者の番号 s_i</t>
+  </si>
+  <si>
+    <t>Loser_number</t>
+  </si>
+  <si>
+    <t>勝負テーブル</t>
+  </si>
+  <si>
+    <t>victory_tables[i][j]</t>
   </si>
   <si>
     <t>メソッド</t>
@@ -72,7 +72,7 @@
     <t>HeadData_split</t>
   </si>
   <si>
-    <t>ヘッダからポイの数 金魚の数 ポイの耐久性を分割する</t>
+    <t>ヘッダから大会の参加者の総数を分割する</t>
   </si>
   <si>
     <t>step3</t>
@@ -81,25 +81,25 @@
     <t>Goldfish_Data_split</t>
   </si>
   <si>
-    <t>データファイルの金魚の重さのデータとヘッダを分割する。</t>
+    <t>データファイルから成績データを抽出する。</t>
   </si>
   <si>
     <t>step4</t>
   </si>
   <si>
-    <t>scoop_goldfish</t>
-  </si>
-  <si>
-    <t>ポイがなくなるまで金魚すくいをする</t>
+    <t>Aggregate_Grades</t>
+  </si>
+  <si>
+    <t>成績配列に成績をセットする</t>
   </si>
   <si>
     <t>step5</t>
   </si>
   <si>
-    <t>success_scoop_goldfish</t>
-  </si>
-  <si>
-    <t>ポイがなくなったらすくえた金魚の数を表示する</t>
+    <t>Display_tabulation_tables</t>
+  </si>
+  <si>
+    <t>成績配列を表示する</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>M N x</a:t>
+            <a:t>N</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -323,27 +323,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>w_1(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>金魚の重さ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>) </a:t>
+            <a:t>f_1 s_1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -366,27 +346,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>w_2(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>金魚の重さ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>f_2 s_2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -402,14 +362,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>...</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -425,29 +385,6 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -455,7 +392,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>M</a:t>
+            <a:t>f_M s_M  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -521,7 +458,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ポイの数 </a:t>
+            <a:t>大会の参加者の総数 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -554,7 +491,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>金魚の数 </a:t>
+            <a:t>勝者の番号を表す整数 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -564,7 +501,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>M</a:t>
+            <a:t>f_i</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -587,7 +524,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ポイの耐久性 </a:t>
+            <a:t>敗者の番号を表す整数 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -597,7 +534,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>x</a:t>
+            <a:t>s_i</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -619,112 +556,6 @@
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>w_i (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>金魚の重さ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>全てのポイを使い、すくうことのできた金魚の数</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1033,7 +864,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1091,18 +922,18 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9">

--- a/C042_リーグ表の作成.xlsx
+++ b/C042_リーグ表の作成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A436A2A0-BBC6-4E1C-944D-D6A9279C49B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E6BE80-82C1-4C04-A414-0EC9E9375B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>step3</t>
   </si>
   <si>
-    <t>Goldfish_Data_split</t>
+    <t>Grades_Data_select</t>
   </si>
   <si>
     <t>データファイルから成績データを抽出する。</t>
@@ -864,7 +864,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/C042_リーグ表の作成.xlsx
+++ b/C042_リーグ表の作成.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26018"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E6BE80-82C1-4C04-A414-0EC9E9375B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{147D0B40-7993-439A-8F4D-54E6205B0DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/C042_リーグ表の作成.xlsx
+++ b/C042_リーグ表の作成.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147D0B40-7993-439A-8F4D-54E6205B0DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85961AEB-C460-4073-868D-949DAE607199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C042" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>大会の参加者の総数 N</t>
   </si>
@@ -54,9 +55,27 @@
     <t>victory_tables[i][j]</t>
   </si>
   <si>
+    <t>チェックメソッド</t>
+  </si>
+  <si>
+    <t>==3*2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>メソッド</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>step1</t>
   </si>
   <si>
@@ -66,6 +85,9 @@
     <t>データファイルからヘッダを取得</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>step2</t>
   </si>
   <si>
@@ -75,6 +97,9 @@
     <t>ヘッダから大会の参加者の総数を分割する</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>step3</t>
   </si>
   <si>
@@ -82,6 +107,9 @@
   </si>
   <si>
     <t>データファイルから成績データを抽出する。</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>step4</t>
@@ -141,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -167,16 +196,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -191,8 +220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="476250"/>
-          <a:ext cx="4257675" cy="3486150"/>
+          <a:off x="2838450" y="104775"/>
+          <a:ext cx="4257675" cy="2419350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -535,6 +564,828 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>s_i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BE78EF-F726-49B4-9BE3-A05E01C30572}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0010FE51-C737-4AF0-8FEE-1904DEE76B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="171450"/>
+          <a:ext cx="3314700" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>入力条件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 ≦ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>N ≦ 20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>各 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>i (1 ≦ i ≦ N × (N-1) / 2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>について</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 ≦ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>f_i, s_i ≦ N</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>・f_i ≠ s_i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>err</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_N_numerical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	N != numerical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_f_s_numerical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	f_i != numerical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	s_i != numerical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_f_s_double</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>同じ試合は存在しない</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_f_s_equal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	f_i == s_i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_N_bitween</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	1 &gt;= N &gt;= 21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>check_f_s_bitween</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	1 &gt;= f_i &gt;= 21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	1 &gt;= s_i &gt;= 21</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -861,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,131 +1732,205 @@
     <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:20">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:20">
       <c r="C3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:20">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:20">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:20">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:20">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:20">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:20">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:20">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:20">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:20">
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:20">
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="T15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
       <c r="I16" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="R17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="R18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="8:8">
@@ -1018,4 +1943,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027A99DD-4788-4CE7-A3D1-D4E8441C8167}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>